--- a/public/payroll.xlsx
+++ b/public/payroll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\betterwork\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>period</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>receive_payroll</t>
+  </si>
+  <si>
+    <t>YKK-001</t>
+  </si>
+  <si>
+    <t>YKK-002</t>
+  </si>
+  <si>
+    <t>YKK-003</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M6"/>
+      <selection activeCell="D2" sqref="D2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,15 +449,127 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>15000000</v>
+      </c>
+      <c r="D2">
+        <v>25000</v>
+      </c>
+      <c r="E2">
+        <v>25000</v>
+      </c>
+      <c r="F2">
+        <v>25000</v>
+      </c>
+      <c r="G2">
+        <v>25000</v>
+      </c>
+      <c r="H2">
+        <v>25000</v>
+      </c>
+      <c r="I2">
+        <v>25000</v>
+      </c>
+      <c r="J2">
+        <v>25000</v>
+      </c>
+      <c r="K2">
+        <v>25000</v>
+      </c>
+      <c r="L2">
+        <v>25000</v>
+      </c>
+      <c r="M2">
+        <v>15225000</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="L3" s="1"/>
+      <c r="A3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>5000000</v>
+      </c>
+      <c r="D3">
+        <v>50000</v>
+      </c>
+      <c r="E3">
+        <v>50000</v>
+      </c>
+      <c r="F3">
+        <v>50000</v>
+      </c>
+      <c r="G3">
+        <v>50000</v>
+      </c>
+      <c r="H3">
+        <v>50000</v>
+      </c>
+      <c r="I3">
+        <v>50000</v>
+      </c>
+      <c r="J3">
+        <v>50000</v>
+      </c>
+      <c r="K3">
+        <v>50000</v>
+      </c>
+      <c r="L3">
+        <v>50000</v>
+      </c>
+      <c r="M3">
+        <v>5450000</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>25000000</v>
+      </c>
+      <c r="D4">
+        <v>75000</v>
+      </c>
+      <c r="E4">
+        <v>75000</v>
+      </c>
+      <c r="F4">
+        <v>75000</v>
+      </c>
+      <c r="G4">
+        <v>75000</v>
+      </c>
+      <c r="H4">
+        <v>75000</v>
+      </c>
+      <c r="I4">
+        <v>75000</v>
+      </c>
+      <c r="J4">
+        <v>75000</v>
+      </c>
+      <c r="K4">
+        <v>75000</v>
+      </c>
+      <c r="L4">
+        <v>75000</v>
+      </c>
+      <c r="M4">
+        <v>25675000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
